--- a/Finflux Automation Excels/Client/5007-DISB01JAN2015-EARLYREPAY-DISBTOPUP-UndoTopUP-ChangeLoanAccount-DISBTOPUP-Verify-topup.xlsx
+++ b/Finflux Automation Excels/Client/5007-DISB01JAN2015-EARLYREPAY-DISBTOPUP-UndoTopUP-ChangeLoanAccount-DISBTOPUP-Verify-topup.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
@@ -933,7 +933,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +977,7 @@
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>345</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
@@ -988,8 +988,8 @@
       <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2">
-        <v>1625</v>
+      <c r="E2" s="5">
+        <v>1627.83</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>342</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -1022,8 +1022,8 @@
       <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2">
-        <v>8375</v>
+      <c r="E3" s="5">
+        <v>8372.17</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1037,8 +1037,8 @@
       <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="2">
-        <v>8375</v>
+      <c r="J3" s="5">
+        <v>8372.17</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
